--- a/output-files/feature importance.xlsx
+++ b/output-files/feature importance.xlsx
@@ -445,17 +445,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1744888722896576</v>
+        <v>0.1333794710927959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Tuition_fees_up_to_date</t>
+          <t>Curricular_units_2nd_sem_grade</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09654311090707779</v>
+        <v>0.08617625030196589</v>
       </c>
     </row>
     <row r="4">
@@ -465,307 +465,307 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04958590492606163</v>
+        <v>0.08565439152424163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_enrolled</t>
+          <t>Curricular_units_1st_sem_grade</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04242166131734848</v>
+        <v>0.05626226109780184</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_2nd_sem_grade</t>
+          <t>Curricular_units_2nd_sem_evaluations</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03741508722305298</v>
+        <v>0.05322768671757551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Debtor</t>
+          <t>Curricular_units_1st_sem_evaluations</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03637020662426949</v>
+        <v>0.04051909432120618</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_2nd_sem_enrolled</t>
+          <t>Tuition_fees_up_to_date</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03319909796118736</v>
+        <v>0.03923789138149394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Age_at_enrollment</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02458923682570457</v>
+        <v>0.03873030376808251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_2nd_sem_credited</t>
+          <t>Admission_grade</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02448815666139126</v>
+        <v>0.03628942552308256</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_evaluations</t>
+          <t>Previous_qualification_grade</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02373299188911915</v>
+        <v>0.0342887630038782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Scholarship_holder</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02362888306379318</v>
+        <v>0.03261357914811818</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_2nd_sem_evaluations</t>
+          <t>Curricular_units_2nd_sem_enrolled</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02361613698303699</v>
+        <v>0.03128507387933927</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Age_at_enrollment</t>
+          <t>Fathers_occupation</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02317731268703938</v>
+        <v>0.02877714781677314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>Mothers_occupation</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02312368527054787</v>
+        <v>0.02778480661429914</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Unemployment_rate</t>
+          <t>Curricular_units_1st_sem_enrolled</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02227244712412357</v>
+        <v>0.02660758926171462</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Mothers_occupation</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02195541374385357</v>
+        <v>0.02441035480468175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Inflation_rate</t>
+          <t>Application_mode</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02056267857551575</v>
+        <v>0.02424706320831739</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Displaced</t>
+          <t>Unemployment_rate</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.018656887114048</v>
+        <v>0.02402736787192655</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Mothers_qualification</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0182045940309763</v>
+        <v>0.02364869533072945</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Application_mode</t>
+          <t>Inflation_rate</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01814007014036179</v>
+        <v>0.02214226771016593</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Application_order</t>
+          <t>Fathers_qualification</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01762733049690723</v>
+        <v>0.02202336180866058</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>﻿Marital_status</t>
+          <t>Scholarship_holder</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01740367338061333</v>
+        <v>0.01863437813047933</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Previous_qualification_grade</t>
+          <t>Application_order</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01730155199766159</v>
+        <v>0.01683649225109694</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Mothers_qualification</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01661134511232376</v>
+        <v>0.01208922710833953</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_without_evaluations</t>
+          <t>Debtor</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01635460741817951</v>
+        <v>0.01113420599207471</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_grade</t>
+          <t>Displaced</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0160764679312706</v>
+        <v>0.00950975882880652</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fathers_occupation</t>
+          <t>Curricular_units_1st_sem_credited</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01571225374937057</v>
+        <v>0.007793766220844182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Admission_grade</t>
+          <t>Curricular_units_2nd_sem_credited</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01569974794983864</v>
+        <v>0.007296882555395416</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fathers_qualification</t>
+          <t>Previous_qualification</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0156613290309906</v>
+        <v>0.006098604714741486</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>﻿Marital_status</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01492480374872684</v>
+        <v>0.004743831476878672</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Daytime_evening_attendance</t>
+          <t>Curricular_units_1st_sem_without_evaluations</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01478192582726479</v>
+        <v>0.004274855072533387</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_credited</t>
+          <t>Curricular_units_2nd_sem_without_evaluations</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01474003028124571</v>
+        <v>0.003983635561186416</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Educational_special_needs</t>
+          <t>Daytime_evening_attendance</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01417849212884903</v>
+        <v>0.003172155001978988</v>
       </c>
     </row>
     <row r="35">
@@ -775,27 +775,27 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01241968758404255</v>
+        <v>0.001159853257012284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_2nd_sem_without_evaluations</t>
+          <t>Educational_special_needs</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0122354980558157</v>
+        <v>0.0009718954472809992</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Previous_qualification</t>
+          <t>International</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01209883112460375</v>
+        <v>0.000967612194500851</v>
       </c>
     </row>
   </sheetData>

--- a/output-files/feature importance.xlsx
+++ b/output-files/feature importance.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1333794710927959</v>
+        <v>0.1345290405136781</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08617625030196589</v>
+        <v>0.0869709404276075</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08565439152424163</v>
+        <v>0.08457022624860519</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05626226109780184</v>
+        <v>0.05636119583341063</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05322768671757551</v>
+        <v>0.05330596867991386</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04051909432120618</v>
+        <v>0.04069080440837327</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03923789138149394</v>
+        <v>0.04042998356688329</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03873030376808251</v>
+        <v>0.03863798867759155</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03628942552308256</v>
+        <v>0.03599375358181588</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0342887630038782</v>
+        <v>0.03427909567283946</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03261357914811818</v>
+        <v>0.03234233195385871</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03128507387933927</v>
+        <v>0.03141825624891987</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02877714781677314</v>
+        <v>0.02827713728234888</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02778480661429914</v>
+        <v>0.02771350037702648</v>
       </c>
     </row>
     <row r="16">
@@ -585,27 +585,27 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02660758926171462</v>
+        <v>0.02715733150319712</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>Application_mode</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02441035480468175</v>
+        <v>0.02477322499298529</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Application_mode</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02424706320831739</v>
+        <v>0.02416395562703895</v>
       </c>
     </row>
     <row r="19">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02402736787192655</v>
+        <v>0.02317205333505591</v>
       </c>
     </row>
     <row r="20">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02364869533072945</v>
+        <v>0.02309625010307993</v>
       </c>
     </row>
     <row r="21">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02214226771016593</v>
+        <v>0.02215500399814577</v>
       </c>
     </row>
     <row r="22">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02202336180866058</v>
+        <v>0.02175606384052367</v>
       </c>
     </row>
     <row r="23">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01863437813047933</v>
+        <v>0.01858338706148057</v>
       </c>
     </row>
     <row r="24">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01683649225109694</v>
+        <v>0.01666563408691982</v>
       </c>
     </row>
     <row r="25">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01208922710833953</v>
+        <v>0.01222325005156822</v>
       </c>
     </row>
     <row r="26">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01113420599207471</v>
+        <v>0.0109391202310133</v>
       </c>
     </row>
     <row r="27">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00950975882880652</v>
+        <v>0.009233370174552414</v>
       </c>
     </row>
     <row r="28">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.007793766220844182</v>
+        <v>0.007841030182561031</v>
       </c>
     </row>
     <row r="29">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007296882555395416</v>
+        <v>0.007094084433441589</v>
       </c>
     </row>
     <row r="30">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.006098604714741486</v>
+        <v>0.006401273817522582</v>
       </c>
     </row>
     <row r="31">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.004743831476878672</v>
+        <v>0.004879533656113324</v>
       </c>
     </row>
     <row r="32">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.004274855072533387</v>
+        <v>0.004068645981664698</v>
       </c>
     </row>
     <row r="33">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.003983635561186416</v>
+        <v>0.003857452073412244</v>
       </c>
     </row>
     <row r="34">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.003172155001978988</v>
+        <v>0.003146477134051818</v>
       </c>
     </row>
     <row r="35">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001159853257012284</v>
+        <v>0.001226540489769982</v>
       </c>
     </row>
     <row r="36">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0009718954472809992</v>
+        <v>0.001035335594133368</v>
       </c>
     </row>
     <row r="37">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.000967612194500851</v>
+        <v>0.001010758158895721</v>
       </c>
     </row>
   </sheetData>

--- a/output-files/feature importance.xlsx
+++ b/output-files/feature importance.xlsx
@@ -445,97 +445,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1345290405136781</v>
+        <v>0.2857286036014557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_2nd_sem_grade</t>
+          <t>Tuition_fees_up_to_date</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0869709404276075</v>
+        <v>0.1203677728772163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_approved</t>
+          <t>Curricular_units_1st_sem_enrolled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08457022624860519</v>
+        <v>0.06296546012163162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_grade</t>
+          <t>Scholarship_holder</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05636119583341063</v>
+        <v>0.04255395755171776</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_2nd_sem_evaluations</t>
+          <t>Curricular_units_2nd_sem_grade</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05330596867991386</v>
+        <v>0.03835919126868248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_evaluations</t>
+          <t>Curricular_units_1st_sem_approved</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04069080440837327</v>
+        <v>0.03757263347506523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Tuition_fees_up_to_date</t>
+          <t>Age_at_enrollment</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04042998356688329</v>
+        <v>0.03616146743297577</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Age_at_enrollment</t>
+          <t>Debtor</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03863798867759155</v>
+        <v>0.02624924294650555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Admission_grade</t>
+          <t>Curricular_units_2nd_sem_credited</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03599375358181588</v>
+        <v>0.02535009942948818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Previous_qualification_grade</t>
+          <t>Curricular_units_2nd_sem_without_evaluations</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03427909567283946</v>
+        <v>0.0251547172665596</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03234233195385871</v>
+        <v>0.0235648900270462</v>
       </c>
     </row>
     <row r="13">
@@ -555,47 +555,47 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03141825624891987</v>
+        <v>0.02315079048275948</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fathers_occupation</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02827713728234888</v>
+        <v>0.02026549354195595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Mothers_occupation</t>
+          <t>Curricular_units_1st_sem_credited</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02771350037702648</v>
+        <v>0.01859697327017784</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_enrolled</t>
+          <t>Mothers_occupation</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02715733150319712</v>
+        <v>0.01609284430742264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Application_mode</t>
+          <t>Curricular_units_2nd_sem_evaluations</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02477322499298529</v>
+        <v>0.01515539083629847</v>
       </c>
     </row>
     <row r="18">
@@ -605,87 +605,87 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02416395562703895</v>
+        <v>0.01471392717212439</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Unemployment_rate</t>
+          <t>Admission_grade</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02317205333505591</v>
+        <v>0.01293324213474989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Mothers_qualification</t>
+          <t>Application_mode</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02309625010307993</v>
+        <v>0.01278039813041687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Inflation_rate</t>
+          <t>Previous_qualification_grade</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02215500399814577</v>
+        <v>0.01202197000384331</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fathers_qualification</t>
+          <t>Curricular_units_1st_sem_evaluations</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02175606384052367</v>
+        <v>0.01168903987854719</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Scholarship_holder</t>
+          <t>Fathers_qualification</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01858338706148057</v>
+        <v>0.01158195175230503</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Application_order</t>
+          <t>Curricular_units_1st_sem_grade</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01666563408691982</v>
+        <v>0.01146359089761972</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Application_order</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01222325005156822</v>
+        <v>0.01144183147698641</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Debtor</t>
+          <t>Curricular_units_1st_sem_without_evaluations</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0109391202310133</v>
+        <v>0.01015429850667715</v>
       </c>
     </row>
     <row r="27">
@@ -695,67 +695,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009233370174552414</v>
+        <v>0.01012788526713848</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_credited</t>
+          <t>Mothers_qualification</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.007841030182561031</v>
+        <v>0.009899063035845757</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_2nd_sem_credited</t>
+          <t>Inflation_rate</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007094084433441589</v>
+        <v>0.009774173609912395</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Previous_qualification</t>
+          <t>Fathers_occupation</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.006401273817522582</v>
+        <v>0.009742745198309422</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>﻿Marital_status</t>
+          <t>Unemployment_rate</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.004879533656113324</v>
+        <v>0.008553769439458847</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_1st_sem_without_evaluations</t>
+          <t>Nacionality</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.004068645981664698</v>
+        <v>0.008310670964419842</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Curricular_units_2nd_sem_without_evaluations</t>
+          <t>Previous_qualification</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.003857452073412244</v>
+        <v>0.007232827600091696</v>
       </c>
     </row>
     <row r="34">
@@ -765,17 +765,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.003146477134051818</v>
+        <v>0.005440600216388702</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Nacionality</t>
+          <t>﻿Marital_status</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001226540489769982</v>
+        <v>0.004848413169384003</v>
       </c>
     </row>
     <row r="36">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.001035335594133368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.001010758158895721</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
